--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2051229.620847473</v>
+        <v>2048684.434774188</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>142.6621898072149</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>39.25266187003844</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>33.33734849758023</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>98.09203546875366</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>143.6666420308602</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>326.1230146347445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>2.454476553030473</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
-        <v>87.21471514853036</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>41.74133133758806</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922667</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>73.56194264363479</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505191</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>225.1222404669082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>164.5981994227929</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>189.7822042251789</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.3722917337063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>180.2794366746817</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141449</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>525.2409238118514</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>198.0462038478543</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1611.619444146874</v>
+        <v>1659.880644283886</v>
       </c>
       <c r="C5" t="n">
-        <v>1242.656927206462</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>884.3912285997114</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="E5" t="n">
-        <v>498.6029760014672</v>
+        <v>905.1298747452304</v>
       </c>
       <c r="F5" t="n">
-        <v>87.61707121185964</v>
+        <v>898.1843739960269</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>480.2205658942138</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>153.0258459302166</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>2050.019976259698</v>
       </c>
       <c r="Y5" t="n">
-        <v>1998.219284210995</v>
+        <v>1659.880644283886</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>948.3796004312815</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>579.4170834908698</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>579.4170834908698</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>193.6288308926256</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>186.6833301434221</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374774</v>
       </c>
       <c r="K8" t="n">
-        <v>359.2310423874779</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>912.0443006336772</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>1543.762111616989</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N8" t="n">
-        <v>2171.069779676835</v>
+        <v>1536.605668509834</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2083.766873276911</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2513.081919616205</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2395.816233281858</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2395.816233281858</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2064.753345938287</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1711.984690668173</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.73190451848</v>
+        <v>1338.518932407093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.592572542669</v>
+        <v>948.3796004312815</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>539.096290169754</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>56.42225106584976</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362683</v>
@@ -5036,16 +5036,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5057,10 +5057,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>221.343178181171</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969299</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380895</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101826</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683292</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5300,28 +5300,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921487</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452603</v>
+        <v>315.9123021921487</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,49 +5516,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687887</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845476</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057223</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778154</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654796</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830865</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851761</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079492</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935962</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.71788640035</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2204.627616639637</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142522</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>576.8388927589092</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>758.4873575891489</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,22 +6929,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355936</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,10 +7187,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7257,19 +7257,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>551.354624631591</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2014.962104402028</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.886877746226</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1471.202389540339</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1181.785219503378</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>953.7956686053609</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.0030894618308</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8228,7 +8228,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627449</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>34.4292999785705</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,16 +8462,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>150.5889407883047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,19 +8532,19 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>352.6670952726001</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478235</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
-        <v>61.400757869682</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>125.5054897610398</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462226</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>152.1477127454024</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>61.40075786968285</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>62.35543909864907</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>37.12601365260653</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667979</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>146.8157004124962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852383.4813946052</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946052</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>852383.4813946049</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830049</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808067</v>
+        <v>771052.6913808062</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682776</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682722</v>
+        <v>5677.536566682775</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682757</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682722</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682737</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.53656668275</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308020.1338359884</v>
+        <v>-308020.1338359885</v>
       </c>
       <c r="C6" t="n">
-        <v>281947.7453785563</v>
+        <v>281947.745378556</v>
       </c>
       <c r="D6" t="n">
-        <v>126143.9392847606</v>
+        <v>126143.9392847608</v>
       </c>
       <c r="E6" t="n">
-        <v>-312850.1379883921</v>
+        <v>-312884.8759138272</v>
       </c>
       <c r="F6" t="n">
-        <v>458202.5533924146</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="G6" t="n">
-        <v>458202.5533924145</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="H6" t="n">
-        <v>458202.5533924148</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="I6" t="n">
-        <v>458202.5533924146</v>
+        <v>458167.8154669787</v>
       </c>
       <c r="J6" t="n">
-        <v>281779.3341998216</v>
+        <v>281744.5962743861</v>
       </c>
       <c r="K6" t="n">
-        <v>458202.5533924145</v>
+        <v>458167.8154669793</v>
       </c>
       <c r="L6" t="n">
-        <v>458202.5533924145</v>
+        <v>458167.8154669792</v>
       </c>
       <c r="M6" t="n">
-        <v>333994.0426843562</v>
+        <v>333959.3047589204</v>
       </c>
       <c r="N6" t="n">
-        <v>458202.5533924145</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="O6" t="n">
-        <v>458202.5533924148</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="P6" t="n">
-        <v>458202.5533924146</v>
+        <v>458167.8154669792</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,22 +26790,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.269126437646349</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>128.0571403890125</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>380.4468215232147</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>53.83928077610759</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>68.98522108410583</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>43.60808604372448</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28062,22 +28062,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>216.1301767990643</v>
       </c>
     </row>
     <row r="11">
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-2.392217824106166e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250652</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>734.2678383622667</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129214</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963271</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>456.3459017226589</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>454.5879800486403</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,34 +32552,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>448.9178583921327</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,22 +33257,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33284,7 +33284,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313363</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245835</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530448</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>117.8264258114921</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35182,16 +35182,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>185.9264357596129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>533.9775360348272</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507062</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>592.1338044402485</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385624</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164529</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>318.5044627482999</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>311.9917356041959</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>314.9434509778025</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
